--- a/travelexpense_report.xlsx
+++ b/travelexpense_report.xlsx
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
   <si>
     <t>DGD ENTERPRISES</t>
   </si>
   <si>
-    <t>Travelling Expense Statement of Jan 2020</t>
+    <t>Travelling Expense Statement of Feb 2020</t>
   </si>
   <si>
     <t>Sr No.</t>
@@ -68,61 +68,40 @@
     <t>MR. AKSHAY M NAIR</t>
   </si>
   <si>
-    <t>Nanded</t>
-  </si>
-  <si>
-    <t>27-Jan-2020</t>
-  </si>
-  <si>
-    <t>DE001192010T</t>
-  </si>
-  <si>
-    <t>01-Jan-2020</t>
-  </si>
-  <si>
-    <t>29-Jan-2020</t>
-  </si>
-  <si>
-    <t>PAID</t>
-  </si>
-  <si>
-    <t>05-Feb-2020</t>
-  </si>
-  <si>
-    <t>19-Jan-2020</t>
+    <t>MUMBAI</t>
+  </si>
+  <si>
+    <t>01-Feb-2020</t>
+  </si>
+  <si>
+    <t>DE001192013T</t>
+  </si>
+  <si>
+    <t>02-Jan-2020</t>
+  </si>
+  <si>
+    <t>13-Feb-2020</t>
+  </si>
+  <si>
+    <t>UNPAID</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>PUNE</t>
   </si>
   <si>
     <t>DE001192011T</t>
   </si>
   <si>
-    <t>16-Jan-2020</t>
-  </si>
-  <si>
-    <t>08-Jan-2020</t>
-  </si>
-  <si>
-    <t>17-Jan-2020</t>
-  </si>
-  <si>
-    <t>NANDESARI SURAT</t>
-  </si>
-  <si>
-    <t>06-Jan-2020</t>
-  </si>
-  <si>
-    <t>DE004192034T</t>
-  </si>
-  <si>
-    <t>02-Jan-2020</t>
-  </si>
-  <si>
-    <t>04-Jan-2020</t>
-  </si>
-  <si>
-    <t>UNPAID</t>
-  </si>
-  <si>
-    <t>--</t>
+    <t>27-Feb-2020</t>
+  </si>
+  <si>
+    <t>29-Feb-2020</t>
+  </si>
+  <si>
+    <t>02-Feb-2020</t>
   </si>
   <si>
     <t>Total</t>
@@ -486,7 +465,7 @@
   <cols>
     <col min="1" max="1" width="8.140869" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="21.137695" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="18.709717" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="8.140869" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="15.281982" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="15.281982" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="13.996582" bestFit="true" customWidth="true" style="0"/>
@@ -497,7 +476,7 @@
     <col min="11" max="11" width="6.998291" bestFit="true" customWidth="true" style="0"/>
     <col min="12" max="12" width="18.709717" bestFit="true" customWidth="true" style="0"/>
     <col min="13" max="13" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="14" max="14" width="13.996582" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="11.711426" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -618,21 +597,11 @@
       <c r="G5" t="s">
         <v>21</v>
       </c>
-      <c r="H5">
-        <v>212</v>
-      </c>
-      <c r="I5">
-        <v>223</v>
-      </c>
-      <c r="J5">
-        <v>423</v>
-      </c>
-      <c r="K5">
-        <v>455</v>
-      </c>
-      <c r="L5">
-        <v>1313</v>
-      </c>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
       <c r="M5" t="s">
         <v>22</v>
       </c>
@@ -648,10 +617,10 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
         <v>25</v>
@@ -663,25 +632,25 @@
         <v>27</v>
       </c>
       <c r="H6">
-        <v>345</v>
+        <v>231</v>
       </c>
       <c r="I6">
-        <v>776</v>
+        <v>123</v>
       </c>
       <c r="J6">
-        <v>999</v>
+        <v>4343</v>
       </c>
       <c r="K6">
-        <v>716</v>
+        <v>5757</v>
       </c>
       <c r="L6">
-        <v>2836</v>
+        <v>10454</v>
       </c>
       <c r="M6" t="s">
         <v>22</v>
       </c>
       <c r="N6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -692,45 +661,45 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="E7">
+        <v>12345</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="H7">
-        <v>979</v>
+        <v>1234</v>
       </c>
       <c r="I7">
-        <v>796</v>
+        <v>234</v>
       </c>
       <c r="J7">
-        <v>284</v>
+        <v>2345</v>
       </c>
       <c r="K7">
-        <v>200</v>
+        <v>12</v>
       </c>
       <c r="L7">
-        <v>2259</v>
+        <v>3825</v>
       </c>
       <c r="M7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="N7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="B8" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C8"/>
       <c r="D8"/>
@@ -738,48 +707,48 @@
       <c r="F8"/>
       <c r="G8"/>
       <c r="H8">
-        <v>1536</v>
+        <v>1465</v>
       </c>
       <c r="I8">
-        <v>1795</v>
+        <v>357</v>
       </c>
       <c r="J8">
-        <v>1706</v>
+        <v>6688</v>
       </c>
       <c r="K8">
-        <v>1371</v>
+        <v>5769</v>
       </c>
       <c r="L8">
-        <v>6408</v>
+        <v>14279</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="I10" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="J10" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="K10"/>
       <c r="L10">
-        <v>6408</v>
+        <v>14279</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="B11" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
       <c r="F11" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G11"/>
       <c r="H11" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="I11"/>
     </row>
@@ -788,7 +757,7 @@
         <v>4</v>
       </c>
       <c r="G12" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H12"/>
       <c r="I12"/>

--- a/travelexpense_report.xlsx
+++ b/travelexpense_report.xlsx
@@ -15,35 +15,65 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
   <si>
     <t>DGD ENTERPRISES</t>
   </si>
   <si>
-    <t>Travelling Expense Statement of Feb 2020</t>
-  </si>
-  <si>
-    <t>Sr No.</t>
+    <t>Daily Wages</t>
+  </si>
+  <si>
+    <t>Travelling Expense Statement</t>
+  </si>
+  <si>
+    <t>Voucher Ref.</t>
+  </si>
+  <si>
+    <t>DW1910119208T</t>
+  </si>
+  <si>
+    <t>Voucher Date</t>
+  </si>
+  <si>
+    <t>19-Feb-2020</t>
+  </si>
+  <si>
+    <t>Departed Date</t>
+  </si>
+  <si>
+    <t>02-Feb-2020</t>
+  </si>
+  <si>
+    <t>Returned Date</t>
+  </si>
+  <si>
+    <t>29-Feb-2020</t>
   </si>
   <si>
     <t>Engineer Name</t>
   </si>
   <si>
+    <t>MR. AKSHAY M NAIR (DW19101)</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>NANDED</t>
+  </si>
+  <si>
+    <t>Travelling Details</t>
+  </si>
+  <si>
+    <t>Sr. No.</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
     <t>Place</t>
   </si>
   <si>
-    <t>Voucher Date</t>
-  </si>
-  <si>
-    <t>Voucher Ref.</t>
-  </si>
-  <si>
-    <t>Date From</t>
-  </si>
-  <si>
-    <t>Date To</t>
-  </si>
-  <si>
     <t>Travel</t>
   </si>
   <si>
@@ -56,67 +86,34 @@
     <t>Extra</t>
   </si>
   <si>
-    <t>Total for Visit</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Paid Date</t>
-  </si>
-  <si>
-    <t>MR. AKSHAY M NAIR</t>
-  </si>
-  <si>
-    <t>MUMBAI</t>
-  </si>
-  <si>
-    <t>01-Feb-2020</t>
-  </si>
-  <si>
-    <t>DE001192013T</t>
-  </si>
-  <si>
-    <t>02-Jan-2020</t>
-  </si>
-  <si>
-    <t>13-Feb-2020</t>
-  </si>
-  <si>
-    <t>UNPAID</t>
-  </si>
-  <si>
-    <t>--</t>
-  </si>
-  <si>
-    <t>PUNE</t>
-  </si>
-  <si>
-    <t>DE001192011T</t>
-  </si>
-  <si>
-    <t>27-Feb-2020</t>
-  </si>
-  <si>
-    <t>29-Feb-2020</t>
-  </si>
-  <si>
-    <t>02-Feb-2020</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>05-Feb-2020</t>
+  </si>
+  <si>
+    <t>JALNA</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Signature</t>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
-    <t>Signature</t>
-  </si>
-  <si>
     <t>Approved By</t>
+  </si>
+  <si>
+    <t>Advance in hand</t>
   </si>
 </sst>
 </file>
@@ -152,9 +149,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -455,328 +455,319 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="21.137695" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="15.281982" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="15.281982" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="13.996582" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="13.996582" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="5.855713" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="6.998291" bestFit="true" customWidth="true" style="0"/>
-    <col min="12" max="12" width="18.709717" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="14" max="14" width="11.711426" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="9.283447" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="13.996582" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="6.998291" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="5.855713" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="6.998291" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="6.998291" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="9.283447" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1"/>
-      <c r="C1"/>
-      <c r="D1"/>
-      <c r="E1"/>
-      <c r="F1"/>
-      <c r="G1"/>
-      <c r="H1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
       <c r="I1"/>
-      <c r="J1"/>
-      <c r="K1"/>
-      <c r="L1"/>
-      <c r="M1"/>
-      <c r="N1"/>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" t="s">
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2"/>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
       <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3"/>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
       <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F4" t="s">
+      <c r="I4"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G4" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H4" t="s">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I4" t="s">
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J4" t="s">
+      <c r="I5"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K4" t="s">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L4" t="s">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M4" t="s">
+      <c r="G6" s="1"/>
+      <c r="H6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N4" t="s">
+      <c r="I6"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="1">
+        <v>321</v>
+      </c>
+      <c r="E9" s="1">
+        <v>333</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2131</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1322</v>
+      </c>
+      <c r="H9" s="1">
+        <v>4107</v>
+      </c>
+      <c r="I9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1">
+        <v>321</v>
+      </c>
+      <c r="E10" s="1">
+        <v>333</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2131</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1322</v>
+      </c>
+      <c r="H10" s="1">
+        <v>4107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1">
+        <v>4107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12"/>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12"/>
+      <c r="H12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="s">
+      <c r="B13"/>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13"/>
+      <c r="H13" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14"/>
+      <c r="C14">
+        <v>1000</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14" t="s">
         <v>18</v>
       </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6">
-        <v>231</v>
-      </c>
-      <c r="I6">
-        <v>123</v>
-      </c>
-      <c r="J6">
-        <v>4343</v>
-      </c>
-      <c r="K6">
-        <v>5757</v>
-      </c>
-      <c r="L6">
-        <v>10454</v>
-      </c>
-      <c r="M6" t="s">
-        <v>22</v>
-      </c>
-      <c r="N6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7">
-        <v>12345</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7">
-        <v>1234</v>
-      </c>
-      <c r="I7">
-        <v>234</v>
-      </c>
-      <c r="J7">
-        <v>2345</v>
-      </c>
-      <c r="K7">
-        <v>12</v>
-      </c>
-      <c r="L7">
-        <v>3825</v>
-      </c>
-      <c r="M7" t="s">
-        <v>22</v>
-      </c>
-      <c r="N7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8">
-        <v>1465</v>
-      </c>
-      <c r="I8">
-        <v>357</v>
-      </c>
-      <c r="J8">
-        <v>6688</v>
-      </c>
-      <c r="K8">
-        <v>5769</v>
-      </c>
-      <c r="L8">
-        <v>14279</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="I10" t="s">
+      <c r="G14"/>
+      <c r="H14" t="s">
         <v>30</v>
       </c>
-      <c r="J10" t="s">
-        <v>31</v>
-      </c>
-      <c r="K10"/>
-      <c r="L10">
-        <v>14279</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="B11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11"/>
-      <c r="H11" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11"/>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="F12" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12"/>
-      <c r="I12"/>
+      <c r="I14"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="A3:N3"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="I10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="B11:B11"/>
-    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:E11"/>
     <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:E12"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="H12:I12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/travelexpense_report.xlsx
+++ b/travelexpense_report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t>DGD ENTERPRISES</t>
   </si>
@@ -26,94 +26,124 @@
     <t>Travelling Expense Statement</t>
   </si>
   <si>
+    <t>Sr No.</t>
+  </si>
+  <si>
+    <t>Engineer Name</t>
+  </si>
+  <si>
+    <t>Place</t>
+  </si>
+  <si>
+    <t>Voucher Date</t>
+  </si>
+  <si>
     <t>Voucher Ref.</t>
   </si>
   <si>
-    <t>DW1910119208T</t>
-  </si>
-  <si>
-    <t>Voucher Date</t>
-  </si>
-  <si>
-    <t>19-Feb-2020</t>
-  </si>
-  <si>
-    <t>Departed Date</t>
-  </si>
-  <si>
-    <t>02-Feb-2020</t>
-  </si>
-  <si>
-    <t>Returned Date</t>
-  </si>
-  <si>
-    <t>29-Feb-2020</t>
-  </si>
-  <si>
-    <t>Engineer Name</t>
-  </si>
-  <si>
-    <t>MR. AKSHAY M NAIR (DW19101)</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>NANDED</t>
-  </si>
-  <si>
-    <t>Travelling Details</t>
-  </si>
-  <si>
-    <t>Sr. No.</t>
+    <t>Date From</t>
+  </si>
+  <si>
+    <t>Date To</t>
+  </si>
+  <si>
+    <t>Travel</t>
+  </si>
+  <si>
+    <t>Conveyance</t>
+  </si>
+  <si>
+    <t>L/B</t>
+  </si>
+  <si>
+    <t>Extra</t>
+  </si>
+  <si>
+    <t>Total for Visit</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Paid Date</t>
+  </si>
+  <si>
+    <t>MR. AKSHAY M NAIR</t>
+  </si>
+  <si>
+    <t>Nanded</t>
+  </si>
+  <si>
+    <t>27-Jan-2020</t>
+  </si>
+  <si>
+    <t>DW19101192017T</t>
+  </si>
+  <si>
+    <t>01-Jan-2020</t>
+  </si>
+  <si>
+    <t>29-Jan-2020</t>
+  </si>
+  <si>
+    <t>PAID</t>
+  </si>
+  <si>
+    <t>05-Feb-2020</t>
+  </si>
+  <si>
+    <t>19-Jan-2020</t>
+  </si>
+  <si>
+    <t>DE001192011T</t>
+  </si>
+  <si>
+    <t>16-Jan-2020</t>
+  </si>
+  <si>
+    <t>08-Jan-2020</t>
+  </si>
+  <si>
+    <t>17-Jan-2020</t>
+  </si>
+  <si>
+    <t>NANDESARI SURAT</t>
+  </si>
+  <si>
+    <t>06-Jan-2020</t>
+  </si>
+  <si>
+    <t>DE004192034T</t>
+  </si>
+  <si>
+    <t>02-Jan-2020</t>
+  </si>
+  <si>
+    <t>04-Jan-2020</t>
+  </si>
+  <si>
+    <t>UNPAID</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Signature</t>
+  </si>
+  <si>
+    <t>Approved By</t>
   </si>
   <si>
     <t>Date</t>
-  </si>
-  <si>
-    <t>Place</t>
-  </si>
-  <si>
-    <t>Travel</t>
-  </si>
-  <si>
-    <t>Conveyance</t>
-  </si>
-  <si>
-    <t>L/B</t>
-  </si>
-  <si>
-    <t>Extra</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Remarks</t>
-  </si>
-  <si>
-    <t>05-Feb-2020</t>
-  </si>
-  <si>
-    <t>JALNA</t>
-  </si>
-  <si>
-    <t>TEST</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
-    <t>Signature</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Approved By</t>
-  </si>
-  <si>
-    <t>Advance in hand</t>
   </si>
 </sst>
 </file>
@@ -455,26 +485,31 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9.283447" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="13.996582" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="6.998291" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="5.855713" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="6.998291" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.998291" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="9.283447" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="21.137695" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="18.709717" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="15.281982" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="17.567139" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="13.996582" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="13.996582" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="5.855713" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="6.998291" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="18.709717" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="13.996582" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -485,9 +520,14 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1"/>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -498,9 +538,14 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2"/>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -511,263 +556,320 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3"/>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="F4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="H4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="F5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="1">
+        <v>212</v>
+      </c>
+      <c r="I5" s="1">
+        <v>223</v>
+      </c>
+      <c r="J5" s="1">
+        <v>423</v>
+      </c>
+      <c r="K5" s="1">
+        <v>455</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1313</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="F6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="1">
+        <v>345</v>
+      </c>
+      <c r="I6" s="1">
+        <v>776</v>
+      </c>
+      <c r="J6" s="1">
+        <v>999</v>
+      </c>
+      <c r="K6" s="1">
+        <v>716</v>
+      </c>
+      <c r="L6" s="1">
+        <v>2836</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="1">
+        <v>979</v>
+      </c>
+      <c r="I7" s="1">
+        <v>796</v>
+      </c>
+      <c r="J7" s="1">
+        <v>284</v>
+      </c>
+      <c r="K7" s="1">
+        <v>200</v>
+      </c>
+      <c r="L7" s="1">
+        <v>2259</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1">
-        <v>1</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="1">
-        <v>321</v>
-      </c>
-      <c r="E9" s="1">
-        <v>333</v>
-      </c>
-      <c r="F9" s="1">
-        <v>2131</v>
-      </c>
-      <c r="G9" s="1">
-        <v>1322</v>
-      </c>
-      <c r="H9" s="1">
-        <v>4107</v>
-      </c>
-      <c r="I9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1" t="s">
-        <v>23</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1">
+        <v>1536</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1795</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1706</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1371</v>
+      </c>
+      <c r="L8" s="1">
+        <v>6408</v>
+      </c>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="1">
-        <v>321</v>
-      </c>
-      <c r="E10" s="1">
-        <v>333</v>
-      </c>
-      <c r="F10" s="1">
-        <v>2131</v>
-      </c>
-      <c r="G10" s="1">
-        <v>1322</v>
-      </c>
-      <c r="H10" s="1">
-        <v>4107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1">
-        <v>4107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1">
+        <v>6408</v>
+      </c>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11"/>
+      <c r="H11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G12"/>
       <c r="H12" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="I12"/>
     </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13"/>
-      <c r="C13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13"/>
-      <c r="E13"/>
+    <row r="13" spans="1:14">
       <c r="F13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13"/>
-      <c r="H13" t="s">
-        <v>30</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="G13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13"/>
       <c r="I13"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14"/>
-      <c r="C14">
-        <v>1000</v>
-      </c>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14"/>
-      <c r="H14" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A3:N3"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="I10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="B11:B11"/>
+    <mergeCell ref="C11:E11"/>
     <mergeCell ref="F11:G11"/>
-    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="B12:B12"/>
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="H12:I12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:E13"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="H13:I13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
